--- a/Pawnshop/Pawnshop/Template/Import Template.xlsx
+++ b/Pawnshop/Pawnshop/Template/Import Template.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pawn" sheetId="1" r:id="rId1"/>
+    <sheet name="Class" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="110">
   <si>
     <t>First Name</t>
   </si>
@@ -287,6 +288,63 @@
   </si>
   <si>
     <t>252220</t>
+  </si>
+  <si>
+    <t>BIKE</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>HOME APP-BIG</t>
+  </si>
+  <si>
+    <t>MOTORCYCLE</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>CARPENTRY TOOLS</t>
+  </si>
+  <si>
+    <t>HOME APP-SMALL</t>
+  </si>
+  <si>
+    <t>LAPTOP</t>
+  </si>
+  <si>
+    <t>NOTEBOOK</t>
+  </si>
+  <si>
+    <t>CELLPHONE</t>
+  </si>
+  <si>
+    <t>CEL</t>
+  </si>
+  <si>
+    <t>TABLET</t>
+  </si>
+  <si>
+    <t>ANKLET</t>
+  </si>
+  <si>
+    <t>BROUCH</t>
+  </si>
+  <si>
+    <t>EARRINGS</t>
+  </si>
+  <si>
+    <t>PENDANT</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
 </sst>
 </file>
@@ -644,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
@@ -1480,4 +1538,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>